--- a/test.xlsx
+++ b/test.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -541,12 +541,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2013-04-01 00:00:00</t>
+          <t>2013-02-01 00:00:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2013-04-30 23:59:59</t>
+          <t>2013-02-28 23:59:59</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -583,12 +583,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2013-07-01 00:00:00</t>
+          <t>2013-03-01 00:00:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2013-07-31 23:59:59</t>
+          <t>2013-03-31 23:59:59</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -625,12 +625,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2013-08-01 00:00:00</t>
+          <t>2013-04-01 00:00:00</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2013-08-31 23:59:59</t>
+          <t>2013-04-30 23:59:59</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -667,12 +667,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2013-10-01 00:00:00</t>
+          <t>2013-05-01 00:00:00</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2013-10-31 23:59:59</t>
+          <t>2013-05-31 23:59:59</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -709,1890 +709,3822 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2014-02-01 00:00:00</t>
+          <t>2013-06-01 00:00:00</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2014-02-28 23:59:59</t>
+          <t>2013-06-30 23:59:59</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>292710</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>3648370</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>175574</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>89944</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>4206598</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>17840</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87468</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>9214</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>6761</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>121283</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2014-03-01 00:00:00</t>
+          <t>2013-07-01 00:00:00</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2014-03-31 23:59:59</t>
+          <t>2013-07-31 23:59:59</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>560624</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>46208556</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>457704</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>403124</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>47630008</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>34917</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>2917176</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>24923</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>36547</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>3013563</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2014-06-01 00:00:00</t>
+          <t>2013-08-01 00:00:00</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2014-06-30 23:59:59</t>
+          <t>2013-08-31 23:59:59</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>809854</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>85529712</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>876948</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1451562</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>88668076</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>44256</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>3080883</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62684</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>89037</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>3276860</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2014-10-01 00:00:00</t>
+          <t>2013-09-01 00:00:00</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2014-10-31 23:59:59</t>
+          <t>2013-09-30 23:59:59</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1507358</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>70586754</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1576026</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1743576</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>75413714</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>76528</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>2484883</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>106425</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>119337</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>2787173</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2014-11-01 00:00:00</t>
+          <t>2013-10-01 00:00:00</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2014-11-30 23:59:59</t>
+          <t>2013-10-31 23:59:59</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1078734</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>58340808</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1554988</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1454862</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>62429392</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>71394</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>2422244</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>101605</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>111126</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>2706369</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2015-03-01 00:00:00</t>
+          <t>2013-11-01 00:00:00</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2015-03-31 23:59:59</t>
+          <t>2013-11-30 23:59:59</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>734472</v>
+        <v>1021774</v>
       </c>
       <c r="D12" t="n">
-        <v>45685188</v>
+        <v>9949896</v>
       </c>
       <c r="E12" t="n">
-        <v>1822366</v>
+        <v>42212</v>
       </c>
       <c r="F12" t="n">
-        <v>1711310</v>
+        <v>8040</v>
       </c>
       <c r="G12" t="n">
-        <v>49953336</v>
+        <v>11021922</v>
       </c>
       <c r="H12" t="n">
-        <v>55216</v>
+        <v>68244</v>
       </c>
       <c r="I12" t="n">
-        <v>1779722</v>
+        <v>292993</v>
       </c>
       <c r="J12" t="n">
-        <v>107113</v>
+        <v>953</v>
       </c>
       <c r="K12" t="n">
-        <v>83314</v>
+        <v>557</v>
       </c>
       <c r="L12" t="n">
-        <v>2025365</v>
+        <v>362747</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2015-04-01 00:00:00</t>
+          <t>2013-12-01 00:00:00</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2015-04-30 23:59:59</t>
+          <t>2013-12-31 23:59:59</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>785478</v>
+        <v>3197606</v>
       </c>
       <c r="D13" t="n">
-        <v>44140346</v>
+        <v>29566176</v>
       </c>
       <c r="E13" t="n">
-        <v>1922534</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1847258</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>48695616</v>
+        <v>32763782</v>
       </c>
       <c r="H13" t="n">
-        <v>49031</v>
+        <v>173708</v>
       </c>
       <c r="I13" t="n">
-        <v>1567367</v>
+        <v>662123</v>
       </c>
       <c r="J13" t="n">
-        <v>105522</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>83198</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1805118</v>
+        <v>835831</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2015-06-01 00:00:00</t>
+          <t>2014-01-01 00:00:00</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2015-06-30 23:59:59</t>
+          <t>2014-01-31 23:59:59</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>660628</v>
+        <v>964126</v>
       </c>
       <c r="D14" t="n">
-        <v>32871322</v>
+        <v>7766048</v>
       </c>
       <c r="E14" t="n">
-        <v>4125208</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1718274</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>39375432</v>
+        <v>8730174</v>
       </c>
       <c r="H14" t="n">
-        <v>44386</v>
+        <v>50406</v>
       </c>
       <c r="I14" t="n">
-        <v>1200520</v>
+        <v>239270</v>
       </c>
       <c r="J14" t="n">
-        <v>182185</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>66390</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1493481</v>
+        <v>289676</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2015-08-01 00:00:00</t>
+          <t>2014-02-01 00:00:00</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2015-08-31 23:59:59</t>
+          <t>2014-02-28 23:59:59</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>448824</v>
+        <v>292710</v>
       </c>
       <c r="D15" t="n">
-        <v>28873926</v>
+        <v>3648370</v>
       </c>
       <c r="E15" t="n">
-        <v>9214114</v>
+        <v>175574</v>
       </c>
       <c r="F15" t="n">
-        <v>1046360</v>
+        <v>89944</v>
       </c>
       <c r="G15" t="n">
-        <v>39583224</v>
+        <v>4206598</v>
       </c>
       <c r="H15" t="n">
-        <v>43400</v>
+        <v>17840</v>
       </c>
       <c r="I15" t="n">
-        <v>1117493</v>
+        <v>87468</v>
       </c>
       <c r="J15" t="n">
-        <v>379144</v>
+        <v>9214</v>
       </c>
       <c r="K15" t="n">
-        <v>55699</v>
+        <v>6761</v>
       </c>
       <c r="L15" t="n">
-        <v>1595736</v>
+        <v>121283</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2015-11-01 00:00:00</t>
+          <t>2014-03-01 00:00:00</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2015-11-30 23:59:59</t>
+          <t>2014-03-31 23:59:59</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>321378</v>
+        <v>560624</v>
       </c>
       <c r="D16" t="n">
-        <v>19875662</v>
+        <v>46208556</v>
       </c>
       <c r="E16" t="n">
-        <v>44369658</v>
+        <v>457704</v>
       </c>
       <c r="F16" t="n">
-        <v>746564</v>
+        <v>403124</v>
       </c>
       <c r="G16" t="n">
-        <v>65313262</v>
+        <v>47630008</v>
       </c>
       <c r="H16" t="n">
-        <v>27271</v>
+        <v>34917</v>
       </c>
       <c r="I16" t="n">
-        <v>559294</v>
+        <v>2917176</v>
       </c>
       <c r="J16" t="n">
-        <v>974217</v>
+        <v>24923</v>
       </c>
       <c r="K16" t="n">
-        <v>45364</v>
+        <v>36547</v>
       </c>
       <c r="L16" t="n">
-        <v>1606146</v>
+        <v>3013563</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2016-01-01 00:00:00</t>
+          <t>2014-04-01 00:00:00</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2016-01-31 23:59:59</t>
+          <t>2014-04-30 23:59:59</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>448046</v>
+        <v>821658</v>
       </c>
       <c r="D17" t="n">
-        <v>24530278</v>
+        <v>149257272</v>
       </c>
       <c r="E17" t="n">
-        <v>24635656</v>
+        <v>1005732</v>
       </c>
       <c r="F17" t="n">
-        <v>805990</v>
+        <v>1957798</v>
       </c>
       <c r="G17" t="n">
-        <v>50419970</v>
+        <v>153042460</v>
       </c>
       <c r="H17" t="n">
-        <v>31937</v>
+        <v>59931</v>
       </c>
       <c r="I17" t="n">
-        <v>647099</v>
+        <v>5369573</v>
       </c>
       <c r="J17" t="n">
-        <v>751501</v>
+        <v>57096</v>
       </c>
       <c r="K17" t="n">
-        <v>50571</v>
+        <v>134079</v>
       </c>
       <c r="L17" t="n">
-        <v>1481108</v>
+        <v>5620679</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2016-02-01 00:00:00</t>
+          <t>2014-05-01 00:00:00</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2016-02-29 23:59:59</t>
+          <t>2014-05-31 23:59:59</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>256806</v>
+        <v>766144</v>
       </c>
       <c r="D18" t="n">
-        <v>15601162</v>
+        <v>110826256</v>
       </c>
       <c r="E18" t="n">
-        <v>11228232</v>
+        <v>1071762</v>
       </c>
       <c r="F18" t="n">
-        <v>576332</v>
+        <v>1734244</v>
       </c>
       <c r="G18" t="n">
-        <v>27662532</v>
+        <v>114398406</v>
       </c>
       <c r="H18" t="n">
-        <v>18741</v>
+        <v>48818</v>
       </c>
       <c r="I18" t="n">
-        <v>412089</v>
+        <v>4282998</v>
       </c>
       <c r="J18" t="n">
-        <v>436098</v>
+        <v>55654</v>
       </c>
       <c r="K18" t="n">
-        <v>29703</v>
+        <v>120460</v>
       </c>
       <c r="L18" t="n">
-        <v>896631</v>
+        <v>4507930</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2016-05-01 00:00:00</t>
+          <t>2014-06-01 00:00:00</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2016-05-31 23:59:59</t>
+          <t>2014-06-30 23:59:59</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>223494</v>
+        <v>809854</v>
       </c>
       <c r="D19" t="n">
-        <v>22333006</v>
+        <v>85529712</v>
       </c>
       <c r="E19" t="n">
-        <v>40112626</v>
+        <v>876948</v>
       </c>
       <c r="F19" t="n">
-        <v>890862</v>
+        <v>1451562</v>
       </c>
       <c r="G19" t="n">
-        <v>63559988</v>
+        <v>88668076</v>
       </c>
       <c r="H19" t="n">
-        <v>19895</v>
+        <v>44256</v>
       </c>
       <c r="I19" t="n">
-        <v>552208</v>
+        <v>3080883</v>
       </c>
       <c r="J19" t="n">
-        <v>1267570</v>
+        <v>62684</v>
       </c>
       <c r="K19" t="n">
-        <v>48072</v>
+        <v>89037</v>
       </c>
       <c r="L19" t="n">
-        <v>1887745</v>
+        <v>3276860</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2016-06-01 00:00:00</t>
+          <t>2014-07-01 00:00:00</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2016-06-30 23:59:59</t>
+          <t>2014-07-31 23:59:59</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>281160</v>
+        <v>1113110</v>
       </c>
       <c r="D20" t="n">
-        <v>21102824</v>
+        <v>105164946</v>
       </c>
       <c r="E20" t="n">
-        <v>38351750</v>
+        <v>1181164</v>
       </c>
       <c r="F20" t="n">
-        <v>1067868</v>
+        <v>1724968</v>
       </c>
       <c r="G20" t="n">
-        <v>60803602</v>
+        <v>109184188</v>
       </c>
       <c r="H20" t="n">
-        <v>21740</v>
+        <v>51637</v>
       </c>
       <c r="I20" t="n">
-        <v>521826</v>
+        <v>3013403</v>
       </c>
       <c r="J20" t="n">
-        <v>1184101</v>
+        <v>64399</v>
       </c>
       <c r="K20" t="n">
-        <v>50416</v>
+        <v>111162</v>
       </c>
       <c r="L20" t="n">
-        <v>1778083</v>
+        <v>3240601</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2016-07-01 00:00:00</t>
+          <t>2014-08-01 00:00:00</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2016-07-31 23:59:59</t>
+          <t>2014-08-31 23:59:59</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>327850</v>
+        <v>1319106</v>
       </c>
       <c r="D21" t="n">
-        <v>26405820</v>
+        <v>105227714</v>
       </c>
       <c r="E21" t="n">
-        <v>37279482</v>
+        <v>1122070</v>
       </c>
       <c r="F21" t="n">
-        <v>1644492</v>
+        <v>1988282</v>
       </c>
       <c r="G21" t="n">
-        <v>65657644</v>
+        <v>109657172</v>
       </c>
       <c r="H21" t="n">
-        <v>23270</v>
+        <v>53775</v>
       </c>
       <c r="I21" t="n">
-        <v>551476</v>
+        <v>2834663</v>
       </c>
       <c r="J21" t="n">
-        <v>1155106</v>
+        <v>61332</v>
       </c>
       <c r="K21" t="n">
-        <v>54796</v>
+        <v>138335</v>
       </c>
       <c r="L21" t="n">
-        <v>1784648</v>
+        <v>3088105</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2016-10-01 00:00:00</t>
+          <t>2014-09-01 00:00:00</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2016-10-31 23:59:59</t>
+          <t>2014-09-30 23:59:59</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>276684</v>
+        <v>1103338</v>
       </c>
       <c r="D22" t="n">
-        <v>26862276</v>
+        <v>97056350</v>
       </c>
       <c r="E22" t="n">
-        <v>120609104</v>
+        <v>1054526</v>
       </c>
       <c r="F22" t="n">
-        <v>1233508</v>
+        <v>2378488</v>
       </c>
       <c r="G22" t="n">
-        <v>148981572</v>
+        <v>101592702</v>
       </c>
       <c r="H22" t="n">
-        <v>24368</v>
+        <v>49244</v>
       </c>
       <c r="I22" t="n">
-        <v>598352</v>
+        <v>2715646</v>
       </c>
       <c r="J22" t="n">
-        <v>4139022</v>
+        <v>67598</v>
       </c>
       <c r="K22" t="n">
-        <v>52208</v>
+        <v>134318</v>
       </c>
       <c r="L22" t="n">
-        <v>4813950</v>
+        <v>2966806</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2016-12-01 00:00:00</t>
+          <t>2014-10-01 00:00:00</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2016-12-31 23:59:59</t>
+          <t>2014-10-31 23:59:59</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>331668</v>
+        <v>1507358</v>
       </c>
       <c r="D23" t="n">
-        <v>22235166</v>
+        <v>70586754</v>
       </c>
       <c r="E23" t="n">
-        <v>141311102</v>
+        <v>1576026</v>
       </c>
       <c r="F23" t="n">
-        <v>1287462</v>
+        <v>1743576</v>
       </c>
       <c r="G23" t="n">
-        <v>165165398</v>
+        <v>75413714</v>
       </c>
       <c r="H23" t="n">
-        <v>22954</v>
+        <v>76528</v>
       </c>
       <c r="I23" t="n">
-        <v>542048</v>
+        <v>2484883</v>
       </c>
       <c r="J23" t="n">
-        <v>4444514</v>
+        <v>106425</v>
       </c>
       <c r="K23" t="n">
-        <v>55619</v>
+        <v>119337</v>
       </c>
       <c r="L23" t="n">
-        <v>5065135</v>
+        <v>2787173</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2017-01-01 00:00:00</t>
+          <t>2014-11-01 00:00:00</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2017-01-31 23:59:59</t>
+          <t>2014-11-30 23:59:59</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>187744</v>
+        <v>1078734</v>
       </c>
       <c r="D24" t="n">
-        <v>16650392</v>
+        <v>58340808</v>
       </c>
       <c r="E24" t="n">
-        <v>77599948</v>
+        <v>1554988</v>
       </c>
       <c r="F24" t="n">
-        <v>1046544</v>
+        <v>1454862</v>
       </c>
       <c r="G24" t="n">
-        <v>95484628</v>
+        <v>62429392</v>
       </c>
       <c r="H24" t="n">
-        <v>16169</v>
+        <v>71394</v>
       </c>
       <c r="I24" t="n">
-        <v>420872</v>
+        <v>2422244</v>
       </c>
       <c r="J24" t="n">
-        <v>2485620</v>
+        <v>101605</v>
       </c>
       <c r="K24" t="n">
-        <v>44312</v>
+        <v>111126</v>
       </c>
       <c r="L24" t="n">
-        <v>2966973</v>
+        <v>2706369</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2017-02-01 00:00:00</t>
+          <t>2014-12-01 00:00:00</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2017-02-28 23:59:59</t>
+          <t>2014-12-31 23:59:59</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>248870</v>
+        <v>1231380</v>
       </c>
       <c r="D25" t="n">
-        <v>21219048</v>
+        <v>53364954</v>
       </c>
       <c r="E25" t="n">
-        <v>70437074</v>
+        <v>1637212</v>
       </c>
       <c r="F25" t="n">
-        <v>1348824</v>
+        <v>1753308</v>
       </c>
       <c r="G25" t="n">
-        <v>93253816</v>
+        <v>57986854</v>
       </c>
       <c r="H25" t="n">
-        <v>18594</v>
+        <v>74041</v>
       </c>
       <c r="I25" t="n">
-        <v>484041</v>
+        <v>2278241</v>
       </c>
       <c r="J25" t="n">
-        <v>2140255</v>
+        <v>109850</v>
       </c>
       <c r="K25" t="n">
-        <v>49421</v>
+        <v>105809</v>
       </c>
       <c r="L25" t="n">
-        <v>2692311</v>
+        <v>2567941</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2017-05-01 00:00:00</t>
+          <t>2015-01-01 00:00:00</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2017-05-31 23:59:59</t>
+          <t>2015-01-31 23:59:59</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>332780</v>
+        <v>692684</v>
       </c>
       <c r="D26" t="n">
-        <v>35675802</v>
+        <v>49095076</v>
       </c>
       <c r="E26" t="n">
-        <v>69758356</v>
+        <v>1636440</v>
       </c>
       <c r="F26" t="n">
-        <v>2372162</v>
+        <v>1612416</v>
       </c>
       <c r="G26" t="n">
-        <v>108139100</v>
+        <v>53036616</v>
       </c>
       <c r="H26" t="n">
-        <v>25307</v>
+        <v>57931</v>
       </c>
       <c r="I26" t="n">
-        <v>673708</v>
+        <v>2073635</v>
       </c>
       <c r="J26" t="n">
-        <v>2081280</v>
+        <v>106128</v>
       </c>
       <c r="K26" t="n">
-        <v>67603</v>
+        <v>96136</v>
       </c>
       <c r="L26" t="n">
-        <v>2847898</v>
+        <v>2333830</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2017-06-01 00:00:00</t>
+          <t>2015-02-01 00:00:00</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2017-06-30 23:59:59</t>
+          <t>2015-02-28 23:59:59</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>335758</v>
+        <v>390564</v>
       </c>
       <c r="D27" t="n">
-        <v>29230770</v>
+        <v>28753696</v>
       </c>
       <c r="E27" t="n">
-        <v>81246506</v>
+        <v>896548</v>
       </c>
       <c r="F27" t="n">
-        <v>1427684</v>
+        <v>835034</v>
       </c>
       <c r="G27" t="n">
-        <v>112240718</v>
+        <v>30875842</v>
       </c>
       <c r="H27" t="n">
-        <v>24709</v>
+        <v>33044</v>
       </c>
       <c r="I27" t="n">
-        <v>575216</v>
+        <v>1216010</v>
       </c>
       <c r="J27" t="n">
-        <v>2467452</v>
+        <v>61058</v>
       </c>
       <c r="K27" t="n">
-        <v>50304</v>
+        <v>55815</v>
       </c>
       <c r="L27" t="n">
-        <v>3117681</v>
+        <v>1365927</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2017-07-01 00:00:00</t>
+          <t>2015-03-01 00:00:00</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2017-07-31 23:59:59</t>
+          <t>2015-03-31 23:59:59</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>241748</v>
+        <v>734472</v>
       </c>
       <c r="D28" t="n">
-        <v>28482828</v>
+        <v>45685188</v>
       </c>
       <c r="E28" t="n">
-        <v>153747274</v>
+        <v>1822366</v>
       </c>
       <c r="F28" t="n">
-        <v>1227566</v>
+        <v>1711310</v>
       </c>
       <c r="G28" t="n">
-        <v>183699416</v>
+        <v>49953336</v>
       </c>
       <c r="H28" t="n">
-        <v>18527</v>
+        <v>55216</v>
       </c>
       <c r="I28" t="n">
-        <v>570705</v>
+        <v>1779722</v>
       </c>
       <c r="J28" t="n">
-        <v>4149788</v>
+        <v>107113</v>
       </c>
       <c r="K28" t="n">
-        <v>52608</v>
+        <v>83314</v>
       </c>
       <c r="L28" t="n">
-        <v>4791628</v>
+        <v>2025365</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2017-08-01 00:00:00</t>
+          <t>2015-04-01 00:00:00</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2017-08-31 23:59:59</t>
+          <t>2015-04-30 23:59:59</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>323014</v>
+        <v>785478</v>
       </c>
       <c r="D29" t="n">
-        <v>28384158</v>
+        <v>44140346</v>
       </c>
       <c r="E29" t="n">
-        <v>160738306</v>
+        <v>1922534</v>
       </c>
       <c r="F29" t="n">
-        <v>1705570</v>
+        <v>1847258</v>
       </c>
       <c r="G29" t="n">
-        <v>191151048</v>
+        <v>48695616</v>
       </c>
       <c r="H29" t="n">
-        <v>20643</v>
+        <v>49031</v>
       </c>
       <c r="I29" t="n">
-        <v>573706</v>
+        <v>1567367</v>
       </c>
       <c r="J29" t="n">
-        <v>4214404</v>
+        <v>105522</v>
       </c>
       <c r="K29" t="n">
-        <v>56526</v>
+        <v>83198</v>
       </c>
       <c r="L29" t="n">
-        <v>4865279</v>
+        <v>1805118</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2017-11-01 00:00:00</t>
+          <t>2015-05-01 00:00:00</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2017-11-30 23:59:59</t>
+          <t>2015-05-31 23:59:59</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>231064</v>
+        <v>865290</v>
       </c>
       <c r="D30" t="n">
-        <v>27905470</v>
+        <v>39704136</v>
       </c>
       <c r="E30" t="n">
-        <v>191691514</v>
+        <v>2900016</v>
       </c>
       <c r="F30" t="n">
-        <v>997474</v>
+        <v>1257378</v>
       </c>
       <c r="G30" t="n">
-        <v>220825522</v>
+        <v>44726820</v>
       </c>
       <c r="H30" t="n">
-        <v>17135</v>
+        <v>53746</v>
       </c>
       <c r="I30" t="n">
-        <v>584287</v>
+        <v>1441407</v>
       </c>
       <c r="J30" t="n">
-        <v>5163071</v>
+        <v>154122</v>
       </c>
       <c r="K30" t="n">
-        <v>52631</v>
+        <v>68495</v>
       </c>
       <c r="L30" t="n">
-        <v>5817124</v>
+        <v>1717770</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2018-02-01 00:00:00</t>
+          <t>2015-06-01 00:00:00</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2018-02-28 23:59:59</t>
+          <t>2015-06-30 23:59:59</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>176022</v>
+        <v>660628</v>
       </c>
       <c r="D31" t="n">
-        <v>16902564</v>
+        <v>32871322</v>
       </c>
       <c r="E31" t="n">
-        <v>77882068</v>
+        <v>4125208</v>
       </c>
       <c r="F31" t="n">
-        <v>836880</v>
+        <v>1718274</v>
       </c>
       <c r="G31" t="n">
-        <v>95797534</v>
+        <v>39375432</v>
       </c>
       <c r="H31" t="n">
-        <v>12730</v>
+        <v>44386</v>
       </c>
       <c r="I31" t="n">
-        <v>341724</v>
+        <v>1200520</v>
       </c>
       <c r="J31" t="n">
-        <v>2296631</v>
+        <v>182185</v>
       </c>
       <c r="K31" t="n">
-        <v>32832</v>
+        <v>66390</v>
       </c>
       <c r="L31" t="n">
-        <v>2683917</v>
+        <v>1493481</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2018-03-01 00:00:00</t>
+          <t>2015-07-01 00:00:00</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2018-03-31 23:59:59</t>
+          <t>2015-07-31 23:59:59</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>292160</v>
+        <v>560010</v>
       </c>
       <c r="D32" t="n">
-        <v>36292582</v>
+        <v>29725076</v>
       </c>
       <c r="E32" t="n">
-        <v>130169348</v>
+        <v>8715534</v>
       </c>
       <c r="F32" t="n">
-        <v>1373784</v>
+        <v>922034</v>
       </c>
       <c r="G32" t="n">
-        <v>168127874</v>
+        <v>39922654</v>
       </c>
       <c r="H32" t="n">
-        <v>22731</v>
+        <v>47414</v>
       </c>
       <c r="I32" t="n">
-        <v>581766</v>
+        <v>1186230</v>
       </c>
       <c r="J32" t="n">
-        <v>3458363</v>
+        <v>363945</v>
       </c>
       <c r="K32" t="n">
-        <v>50321</v>
+        <v>54960</v>
       </c>
       <c r="L32" t="n">
-        <v>4113181</v>
+        <v>1652549</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2018-04-01 00:00:00</t>
+          <t>2015-08-01 00:00:00</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2018-04-30 23:59:59</t>
+          <t>2015-08-31 23:59:59</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>342368</v>
+        <v>448824</v>
       </c>
       <c r="D33" t="n">
-        <v>29047820</v>
+        <v>28873926</v>
       </c>
       <c r="E33" t="n">
-        <v>115620752</v>
+        <v>9214114</v>
       </c>
       <c r="F33" t="n">
-        <v>1383298</v>
+        <v>1046360</v>
       </c>
       <c r="G33" t="n">
-        <v>146394238</v>
+        <v>39583224</v>
       </c>
       <c r="H33" t="n">
-        <v>25622</v>
+        <v>43400</v>
       </c>
       <c r="I33" t="n">
-        <v>555820</v>
+        <v>1117493</v>
       </c>
       <c r="J33" t="n">
-        <v>3100268</v>
+        <v>379144</v>
       </c>
       <c r="K33" t="n">
-        <v>45576</v>
+        <v>55699</v>
       </c>
       <c r="L33" t="n">
-        <v>3727286</v>
+        <v>1595736</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2018-07-01 00:00:00</t>
+          <t>2015-09-01 00:00:00</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2018-07-31 23:59:59</t>
+          <t>2015-09-30 23:59:59</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>374168</v>
+        <v>367056</v>
       </c>
       <c r="D34" t="n">
-        <v>45780584</v>
+        <v>25930920</v>
       </c>
       <c r="E34" t="n">
-        <v>228098982</v>
+        <v>5261138</v>
       </c>
       <c r="F34" t="n">
-        <v>1690370</v>
+        <v>706146</v>
       </c>
       <c r="G34" t="n">
-        <v>275944104</v>
+        <v>32265260</v>
       </c>
       <c r="H34" t="n">
-        <v>28045</v>
+        <v>29697</v>
       </c>
       <c r="I34" t="n">
-        <v>646881</v>
+        <v>847916</v>
       </c>
       <c r="J34" t="n">
-        <v>5208498</v>
+        <v>346217</v>
       </c>
       <c r="K34" t="n">
-        <v>56754</v>
+        <v>48738</v>
       </c>
       <c r="L34" t="n">
-        <v>5940178</v>
+        <v>1272568</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2018-08-01 00:00:00</t>
+          <t>2015-10-01 00:00:00</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2018-08-31 23:59:59</t>
+          <t>2015-10-31 23:59:59</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>415848</v>
+        <v>258298</v>
       </c>
       <c r="D35" t="n">
-        <v>50792838</v>
+        <v>21988572</v>
       </c>
       <c r="E35" t="n">
-        <v>237734928</v>
+        <v>31727464</v>
       </c>
       <c r="F35" t="n">
-        <v>1732240</v>
+        <v>866884</v>
       </c>
       <c r="G35" t="n">
-        <v>290675854</v>
+        <v>54841218</v>
       </c>
       <c r="H35" t="n">
-        <v>39702</v>
+        <v>29821</v>
       </c>
       <c r="I35" t="n">
-        <v>720045</v>
+        <v>629549</v>
       </c>
       <c r="J35" t="n">
-        <v>5801249</v>
+        <v>950273</v>
       </c>
       <c r="K35" t="n">
-        <v>61808</v>
+        <v>46925</v>
       </c>
       <c r="L35" t="n">
-        <v>6622804</v>
+        <v>1656568</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2018-09-01 00:00:00</t>
+          <t>2015-11-01 00:00:00</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2018-09-30 23:59:59</t>
+          <t>2015-11-30 23:59:59</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>392316</v>
+        <v>321378</v>
       </c>
       <c r="D36" t="n">
-        <v>45591504</v>
+        <v>19875662</v>
       </c>
       <c r="E36" t="n">
-        <v>239647046</v>
+        <v>44369658</v>
       </c>
       <c r="F36" t="n">
-        <v>1804238</v>
+        <v>746564</v>
       </c>
       <c r="G36" t="n">
-        <v>287435104</v>
+        <v>65313262</v>
       </c>
       <c r="H36" t="n">
-        <v>30838</v>
+        <v>27271</v>
       </c>
       <c r="I36" t="n">
-        <v>671874</v>
+        <v>559294</v>
       </c>
       <c r="J36" t="n">
-        <v>6079126</v>
+        <v>974217</v>
       </c>
       <c r="K36" t="n">
-        <v>60342</v>
+        <v>45364</v>
       </c>
       <c r="L36" t="n">
-        <v>6842180</v>
+        <v>1606146</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2018-10-01 00:00:00</t>
+          <t>2015-12-01 00:00:00</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2018-10-31 23:59:59</t>
+          <t>2015-12-31 23:59:59</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>279610</v>
+        <v>348380</v>
       </c>
       <c r="D37" t="n">
-        <v>43159846</v>
+        <v>23273008</v>
       </c>
       <c r="E37" t="n">
-        <v>252903498</v>
+        <v>56504796</v>
       </c>
       <c r="F37" t="n">
-        <v>2207990</v>
+        <v>775294</v>
       </c>
       <c r="G37" t="n">
-        <v>298550944</v>
+        <v>80901478</v>
       </c>
       <c r="H37" t="n">
-        <v>25905</v>
+        <v>26580</v>
       </c>
       <c r="I37" t="n">
-        <v>690276</v>
+        <v>627683</v>
       </c>
       <c r="J37" t="n">
-        <v>6518751</v>
+        <v>986689</v>
       </c>
       <c r="K37" t="n">
-        <v>53000</v>
+        <v>50807</v>
       </c>
       <c r="L37" t="n">
-        <v>7287932</v>
+        <v>1691759</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2018-11-01 00:00:00</t>
+          <t>2016-01-01 00:00:00</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2018-11-30 23:59:59</t>
+          <t>2016-01-31 23:59:59</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>450516</v>
+        <v>448046</v>
       </c>
       <c r="D38" t="n">
-        <v>45454548</v>
+        <v>24530278</v>
       </c>
       <c r="E38" t="n">
-        <v>171420732</v>
+        <v>24635656</v>
       </c>
       <c r="F38" t="n">
-        <v>1720504</v>
+        <v>805990</v>
       </c>
       <c r="G38" t="n">
-        <v>219046300</v>
+        <v>50419970</v>
       </c>
       <c r="H38" t="n">
-        <v>28075</v>
+        <v>31937</v>
       </c>
       <c r="I38" t="n">
-        <v>754122</v>
+        <v>647099</v>
       </c>
       <c r="J38" t="n">
-        <v>4729114</v>
+        <v>751501</v>
       </c>
       <c r="K38" t="n">
-        <v>47630</v>
+        <v>50571</v>
       </c>
       <c r="L38" t="n">
-        <v>5558941</v>
+        <v>1481108</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2019-02-01 00:00:00</t>
+          <t>2016-02-01 00:00:00</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2019-02-28 23:59:59</t>
+          <t>2016-02-29 23:59:59</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>445210</v>
+        <v>256806</v>
       </c>
       <c r="D39" t="n">
-        <v>24917742</v>
+        <v>15601162</v>
       </c>
       <c r="E39" t="n">
-        <v>98076246</v>
+        <v>11228232</v>
       </c>
       <c r="F39" t="n">
-        <v>1223326</v>
+        <v>576332</v>
       </c>
       <c r="G39" t="n">
-        <v>124662524</v>
+        <v>27662532</v>
       </c>
       <c r="H39" t="n">
-        <v>20336</v>
+        <v>18741</v>
       </c>
       <c r="I39" t="n">
-        <v>494805</v>
+        <v>412089</v>
       </c>
       <c r="J39" t="n">
-        <v>2942789</v>
+        <v>436098</v>
       </c>
       <c r="K39" t="n">
-        <v>38979</v>
+        <v>29703</v>
       </c>
       <c r="L39" t="n">
-        <v>3496909</v>
+        <v>896631</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2019-04-01 00:00:00</t>
+          <t>2016-03-01 00:00:00</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2019-04-30 23:59:59</t>
+          <t>2016-03-31 23:59:59</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>543854</v>
+        <v>295368</v>
       </c>
       <c r="D40" t="n">
-        <v>63027056</v>
+        <v>23513170</v>
       </c>
       <c r="E40" t="n">
-        <v>209565776</v>
+        <v>15863576</v>
       </c>
       <c r="F40" t="n">
-        <v>1940624</v>
+        <v>702800</v>
       </c>
       <c r="G40" t="n">
-        <v>275077310</v>
+        <v>40374914</v>
       </c>
       <c r="H40" t="n">
-        <v>39480</v>
+        <v>26156</v>
       </c>
       <c r="I40" t="n">
-        <v>1003816</v>
+        <v>618190</v>
       </c>
       <c r="J40" t="n">
-        <v>5707364</v>
+        <v>604989</v>
       </c>
       <c r="K40" t="n">
-        <v>63411</v>
+        <v>42903</v>
       </c>
       <c r="L40" t="n">
-        <v>6814071</v>
+        <v>1292238</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2019-05-01 00:00:00</t>
+          <t>2016-04-01 00:00:00</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2019-05-31 23:59:59</t>
+          <t>2016-04-30 23:59:59</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>487662</v>
+        <v>290328</v>
       </c>
       <c r="D41" t="n">
-        <v>74450276</v>
+        <v>22020200</v>
       </c>
       <c r="E41" t="n">
-        <v>224334718</v>
+        <v>30179886</v>
       </c>
       <c r="F41" t="n">
-        <v>2038902</v>
+        <v>631056</v>
       </c>
       <c r="G41" t="n">
-        <v>301311558</v>
+        <v>53121470</v>
       </c>
       <c r="H41" t="n">
-        <v>43913</v>
+        <v>22356</v>
       </c>
       <c r="I41" t="n">
-        <v>1180083</v>
+        <v>567366</v>
       </c>
       <c r="J41" t="n">
-        <v>6246364</v>
+        <v>1049270</v>
       </c>
       <c r="K41" t="n">
-        <v>80859</v>
+        <v>42321</v>
       </c>
       <c r="L41" t="n">
-        <v>7551219</v>
+        <v>1681313</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2019-06-01 00:00:00</t>
+          <t>2016-05-01 00:00:00</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2019-06-30 23:59:59</t>
+          <t>2016-05-31 23:59:59</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>579556</v>
+        <v>223494</v>
       </c>
       <c r="D42" t="n">
-        <v>85572098</v>
+        <v>22333006</v>
       </c>
       <c r="E42" t="n">
-        <v>224930846</v>
+        <v>40112626</v>
       </c>
       <c r="F42" t="n">
-        <v>1936906</v>
+        <v>890862</v>
       </c>
       <c r="G42" t="n">
-        <v>313019406</v>
+        <v>63559988</v>
       </c>
       <c r="H42" t="n">
-        <v>45899</v>
+        <v>19895</v>
       </c>
       <c r="I42" t="n">
-        <v>1211554</v>
+        <v>552208</v>
       </c>
       <c r="J42" t="n">
-        <v>6320092</v>
+        <v>1267570</v>
       </c>
       <c r="K42" t="n">
-        <v>86748</v>
+        <v>48072</v>
       </c>
       <c r="L42" t="n">
-        <v>7664293</v>
+        <v>1887745</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2019-07-01 00:00:00</t>
+          <t>2016-06-01 00:00:00</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2019-07-31 23:59:59</t>
+          <t>2016-06-30 23:59:59</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>507808</v>
+        <v>281160</v>
       </c>
       <c r="D43" t="n">
-        <v>74763614</v>
+        <v>21102824</v>
       </c>
       <c r="E43" t="n">
-        <v>236182356</v>
+        <v>38351750</v>
       </c>
       <c r="F43" t="n">
-        <v>1950988</v>
+        <v>1067868</v>
       </c>
       <c r="G43" t="n">
-        <v>313404766</v>
+        <v>60803602</v>
       </c>
       <c r="H43" t="n">
-        <v>38546</v>
+        <v>21740</v>
       </c>
       <c r="I43" t="n">
-        <v>1171089</v>
+        <v>521826</v>
       </c>
       <c r="J43" t="n">
-        <v>6404744</v>
+        <v>1184101</v>
       </c>
       <c r="K43" t="n">
-        <v>86839</v>
+        <v>50416</v>
       </c>
       <c r="L43" t="n">
-        <v>7701218</v>
+        <v>1778083</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2019-11-01 00:00:00</t>
+          <t>2016-07-01 00:00:00</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2019-11-30 23:59:59</t>
+          <t>2016-07-31 23:59:59</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>437426</v>
+        <v>327850</v>
       </c>
       <c r="D44" t="n">
-        <v>81216600</v>
+        <v>26405820</v>
       </c>
       <c r="E44" t="n">
-        <v>289840286</v>
+        <v>37279482</v>
       </c>
       <c r="F44" t="n">
-        <v>2220032</v>
+        <v>1644492</v>
       </c>
       <c r="G44" t="n">
-        <v>373714344</v>
+        <v>65657644</v>
       </c>
       <c r="H44" t="n">
-        <v>40782</v>
+        <v>23270</v>
       </c>
       <c r="I44" t="n">
-        <v>1370704</v>
+        <v>551476</v>
       </c>
       <c r="J44" t="n">
-        <v>7604652</v>
+        <v>1155106</v>
       </c>
       <c r="K44" t="n">
-        <v>90400</v>
+        <v>54796</v>
       </c>
       <c r="L44" t="n">
-        <v>9106538</v>
+        <v>1784648</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2020-03-01 00:00:00</t>
+          <t>2016-08-01 00:00:00</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2020-03-31 23:59:59</t>
+          <t>2016-08-31 23:59:59</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5254142</v>
+        <v>311460</v>
       </c>
       <c r="D45" t="n">
-        <v>166502386</v>
+        <v>24874592</v>
       </c>
       <c r="E45" t="n">
-        <v>436652432</v>
+        <v>104724954</v>
       </c>
       <c r="F45" t="n">
-        <v>13897232</v>
+        <v>1199904</v>
       </c>
       <c r="G45" t="n">
-        <v>622306192</v>
+        <v>131110910</v>
       </c>
       <c r="H45" t="n">
-        <v>58660</v>
+        <v>28858</v>
       </c>
       <c r="I45" t="n">
-        <v>1667185</v>
+        <v>586410</v>
       </c>
       <c r="J45" t="n">
-        <v>693285</v>
+        <v>5510733</v>
       </c>
       <c r="K45" t="n">
-        <v>141938</v>
+        <v>49805</v>
       </c>
       <c r="L45" t="n">
-        <v>2561068</v>
+        <v>6175806</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2020-04-01 00:00:00</t>
+          <t>2016-09-01 00:00:00</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2020-04-30 23:59:59</t>
+          <t>2016-09-30 23:59:59</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5775806</v>
+        <v>296434</v>
       </c>
       <c r="D46" t="n">
-        <v>163886348</v>
+        <v>21837358</v>
       </c>
       <c r="E46" t="n">
-        <v>431089530</v>
+        <v>115469988</v>
       </c>
       <c r="F46" t="n">
-        <v>13697902</v>
+        <v>1085206</v>
       </c>
       <c r="G46" t="n">
-        <v>614449586</v>
+        <v>138688986</v>
       </c>
       <c r="H46" t="n">
-        <v>65838</v>
+        <v>26966</v>
       </c>
       <c r="I46" t="n">
-        <v>1645016</v>
+        <v>539037</v>
       </c>
       <c r="J46" t="n">
-        <v>682796</v>
+        <v>5621129</v>
       </c>
       <c r="K46" t="n">
-        <v>141890</v>
+        <v>49331</v>
       </c>
       <c r="L46" t="n">
-        <v>2535540</v>
+        <v>6236463</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2020-06-01 00:00:00</t>
+          <t>2016-10-01 00:00:00</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2020-06-30 23:59:59</t>
+          <t>2016-10-31 23:59:59</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>126</v>
+        <v>276684</v>
       </c>
       <c r="D47" t="n">
-        <v>68</v>
+        <v>26862276</v>
       </c>
       <c r="E47" t="n">
-        <v>62</v>
+        <v>120609104</v>
       </c>
       <c r="F47" t="n">
-        <v>52</v>
+        <v>1233508</v>
       </c>
       <c r="G47" t="n">
-        <v>308</v>
+        <v>148981572</v>
       </c>
       <c r="H47" t="n">
-        <v>51</v>
+        <v>24368</v>
       </c>
       <c r="I47" t="n">
-        <v>34</v>
+        <v>598352</v>
       </c>
       <c r="J47" t="n">
-        <v>31</v>
+        <v>4139022</v>
       </c>
       <c r="K47" t="n">
-        <v>26</v>
+        <v>52208</v>
       </c>
       <c r="L47" t="n">
-        <v>142</v>
+        <v>4813950</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2020-07-01 00:00:00</t>
+          <t>2016-11-01 00:00:00</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2020-07-31 23:59:59</t>
+          <t>2016-11-30 23:59:59</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>76</v>
+        <v>240034</v>
       </c>
       <c r="D48" t="n">
-        <v>296</v>
+        <v>22057258</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>129204114</v>
       </c>
       <c r="F48" t="n">
-        <v>4</v>
+        <v>1195212</v>
       </c>
       <c r="G48" t="n">
-        <v>376</v>
+        <v>152696618</v>
       </c>
       <c r="H48" t="n">
-        <v>5</v>
+        <v>19281</v>
       </c>
       <c r="I48" t="n">
-        <v>14</v>
+        <v>521084</v>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
+        <v>3946472</v>
       </c>
       <c r="K48" t="n">
-        <v>1</v>
+        <v>53145</v>
       </c>
       <c r="L48" t="n">
-        <v>20</v>
+        <v>4539982</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2020-08-01 00:00:00</t>
+          <t>2016-12-01 00:00:00</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2020-08-31 23:59:59</t>
+          <t>2016-12-31 23:59:59</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>331668</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>22235166</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>141311102</v>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>1287462</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>165165398</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>22954</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>542048</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
+        <v>4444514</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>55619</v>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>5065135</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2020-09-01 00:00:00</t>
+          <t>2017-01-01 00:00:00</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2020-09-30 23:59:59</t>
+          <t>2017-01-31 23:59:59</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>82684</v>
+        <v>187744</v>
       </c>
       <c r="D50" t="n">
-        <v>59930</v>
+        <v>16650392</v>
       </c>
       <c r="E50" t="n">
-        <v>81974</v>
+        <v>77599948</v>
       </c>
       <c r="F50" t="n">
-        <v>38982</v>
+        <v>1046544</v>
       </c>
       <c r="G50" t="n">
-        <v>263570</v>
+        <v>95484628</v>
       </c>
       <c r="H50" t="n">
-        <v>5162</v>
+        <v>16169</v>
       </c>
       <c r="I50" t="n">
-        <v>3974</v>
+        <v>420872</v>
       </c>
       <c r="J50" t="n">
-        <v>4690</v>
+        <v>2485620</v>
       </c>
       <c r="K50" t="n">
-        <v>3499</v>
+        <v>44312</v>
       </c>
       <c r="L50" t="n">
-        <v>17325</v>
+        <v>2966973</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
+          <t>2017-02-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2017-02-28 23:59:59</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>248870</v>
+      </c>
+      <c r="D51" t="n">
+        <v>21219048</v>
+      </c>
+      <c r="E51" t="n">
+        <v>70437074</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1348824</v>
+      </c>
+      <c r="G51" t="n">
+        <v>93253816</v>
+      </c>
+      <c r="H51" t="n">
+        <v>18594</v>
+      </c>
+      <c r="I51" t="n">
+        <v>484041</v>
+      </c>
+      <c r="J51" t="n">
+        <v>2140255</v>
+      </c>
+      <c r="K51" t="n">
+        <v>49421</v>
+      </c>
+      <c r="L51" t="n">
+        <v>2692311</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2017-03-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2017-03-31 23:59:59</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>245824</v>
+      </c>
+      <c r="D52" t="n">
+        <v>27646134</v>
+      </c>
+      <c r="E52" t="n">
+        <v>81579668</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1576294</v>
+      </c>
+      <c r="G52" t="n">
+        <v>111047920</v>
+      </c>
+      <c r="H52" t="n">
+        <v>23575</v>
+      </c>
+      <c r="I52" t="n">
+        <v>670487</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2624499</v>
+      </c>
+      <c r="K52" t="n">
+        <v>56333</v>
+      </c>
+      <c r="L52" t="n">
+        <v>3374894</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2017-04-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2017-04-30 23:59:59</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>267850</v>
+      </c>
+      <c r="D53" t="n">
+        <v>26994736</v>
+      </c>
+      <c r="E53" t="n">
+        <v>75950646</v>
+      </c>
+      <c r="F53" t="n">
+        <v>2121270</v>
+      </c>
+      <c r="G53" t="n">
+        <v>105334502</v>
+      </c>
+      <c r="H53" t="n">
+        <v>22560</v>
+      </c>
+      <c r="I53" t="n">
+        <v>616723</v>
+      </c>
+      <c r="J53" t="n">
+        <v>2322391</v>
+      </c>
+      <c r="K53" t="n">
+        <v>62261</v>
+      </c>
+      <c r="L53" t="n">
+        <v>3023935</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2017-05-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2017-05-31 23:59:59</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>332780</v>
+      </c>
+      <c r="D54" t="n">
+        <v>35675802</v>
+      </c>
+      <c r="E54" t="n">
+        <v>69758356</v>
+      </c>
+      <c r="F54" t="n">
+        <v>2372162</v>
+      </c>
+      <c r="G54" t="n">
+        <v>108139100</v>
+      </c>
+      <c r="H54" t="n">
+        <v>25307</v>
+      </c>
+      <c r="I54" t="n">
+        <v>673708</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2081280</v>
+      </c>
+      <c r="K54" t="n">
+        <v>67603</v>
+      </c>
+      <c r="L54" t="n">
+        <v>2847898</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2017-06-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2017-06-30 23:59:59</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>335758</v>
+      </c>
+      <c r="D55" t="n">
+        <v>29230770</v>
+      </c>
+      <c r="E55" t="n">
+        <v>81246506</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1427684</v>
+      </c>
+      <c r="G55" t="n">
+        <v>112240718</v>
+      </c>
+      <c r="H55" t="n">
+        <v>24709</v>
+      </c>
+      <c r="I55" t="n">
+        <v>575216</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2467452</v>
+      </c>
+      <c r="K55" t="n">
+        <v>50304</v>
+      </c>
+      <c r="L55" t="n">
+        <v>3117681</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2017-07-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2017-07-31 23:59:59</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>241748</v>
+      </c>
+      <c r="D56" t="n">
+        <v>28482828</v>
+      </c>
+      <c r="E56" t="n">
+        <v>153747274</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1227566</v>
+      </c>
+      <c r="G56" t="n">
+        <v>183699416</v>
+      </c>
+      <c r="H56" t="n">
+        <v>18527</v>
+      </c>
+      <c r="I56" t="n">
+        <v>570705</v>
+      </c>
+      <c r="J56" t="n">
+        <v>4149788</v>
+      </c>
+      <c r="K56" t="n">
+        <v>52608</v>
+      </c>
+      <c r="L56" t="n">
+        <v>4791628</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2017-08-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2017-08-31 23:59:59</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>323014</v>
+      </c>
+      <c r="D57" t="n">
+        <v>28384158</v>
+      </c>
+      <c r="E57" t="n">
+        <v>160738306</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1705570</v>
+      </c>
+      <c r="G57" t="n">
+        <v>191151048</v>
+      </c>
+      <c r="H57" t="n">
+        <v>20643</v>
+      </c>
+      <c r="I57" t="n">
+        <v>573706</v>
+      </c>
+      <c r="J57" t="n">
+        <v>4214404</v>
+      </c>
+      <c r="K57" t="n">
+        <v>56526</v>
+      </c>
+      <c r="L57" t="n">
+        <v>4865279</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2017-09-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2017-09-30 23:59:59</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>226416</v>
+      </c>
+      <c r="D58" t="n">
+        <v>27558580</v>
+      </c>
+      <c r="E58" t="n">
+        <v>180567268</v>
+      </c>
+      <c r="F58" t="n">
+        <v>2005090</v>
+      </c>
+      <c r="G58" t="n">
+        <v>210357354</v>
+      </c>
+      <c r="H58" t="n">
+        <v>20726</v>
+      </c>
+      <c r="I58" t="n">
+        <v>617815</v>
+      </c>
+      <c r="J58" t="n">
+        <v>4788572</v>
+      </c>
+      <c r="K58" t="n">
+        <v>56196</v>
+      </c>
+      <c r="L58" t="n">
+        <v>5483309</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2017-10-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2017-10-31 23:59:59</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>206338</v>
+      </c>
+      <c r="D59" t="n">
+        <v>37489028</v>
+      </c>
+      <c r="E59" t="n">
+        <v>201522860</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1047172</v>
+      </c>
+      <c r="G59" t="n">
+        <v>240265398</v>
+      </c>
+      <c r="H59" t="n">
+        <v>19273</v>
+      </c>
+      <c r="I59" t="n">
+        <v>675106</v>
+      </c>
+      <c r="J59" t="n">
+        <v>5315959</v>
+      </c>
+      <c r="K59" t="n">
+        <v>48942</v>
+      </c>
+      <c r="L59" t="n">
+        <v>6059280</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2017-11-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2017-11-30 23:59:59</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>231064</v>
+      </c>
+      <c r="D60" t="n">
+        <v>27905470</v>
+      </c>
+      <c r="E60" t="n">
+        <v>191691514</v>
+      </c>
+      <c r="F60" t="n">
+        <v>997474</v>
+      </c>
+      <c r="G60" t="n">
+        <v>220825522</v>
+      </c>
+      <c r="H60" t="n">
+        <v>17135</v>
+      </c>
+      <c r="I60" t="n">
+        <v>584287</v>
+      </c>
+      <c r="J60" t="n">
+        <v>5163071</v>
+      </c>
+      <c r="K60" t="n">
+        <v>52631</v>
+      </c>
+      <c r="L60" t="n">
+        <v>5817124</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2017-12-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2017-12-31 23:59:59</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>246746</v>
+      </c>
+      <c r="D61" t="n">
+        <v>29043086</v>
+      </c>
+      <c r="E61" t="n">
+        <v>214479120</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1007306</v>
+      </c>
+      <c r="G61" t="n">
+        <v>244776258</v>
+      </c>
+      <c r="H61" t="n">
+        <v>19398</v>
+      </c>
+      <c r="I61" t="n">
+        <v>579932</v>
+      </c>
+      <c r="J61" t="n">
+        <v>5427590</v>
+      </c>
+      <c r="K61" t="n">
+        <v>54826</v>
+      </c>
+      <c r="L61" t="n">
+        <v>6081746</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2018-01-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>2018-01-31 23:59:59</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>258734</v>
+      </c>
+      <c r="D62" t="n">
+        <v>24445462</v>
+      </c>
+      <c r="E62" t="n">
+        <v>138079862</v>
+      </c>
+      <c r="F62" t="n">
+        <v>962118</v>
+      </c>
+      <c r="G62" t="n">
+        <v>163746176</v>
+      </c>
+      <c r="H62" t="n">
+        <v>17232</v>
+      </c>
+      <c r="I62" t="n">
+        <v>508931</v>
+      </c>
+      <c r="J62" t="n">
+        <v>3861060</v>
+      </c>
+      <c r="K62" t="n">
+        <v>45060</v>
+      </c>
+      <c r="L62" t="n">
+        <v>4432283</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2018-02-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>2018-02-28 23:59:59</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>176022</v>
+      </c>
+      <c r="D63" t="n">
+        <v>16902564</v>
+      </c>
+      <c r="E63" t="n">
+        <v>77882068</v>
+      </c>
+      <c r="F63" t="n">
+        <v>836880</v>
+      </c>
+      <c r="G63" t="n">
+        <v>95797534</v>
+      </c>
+      <c r="H63" t="n">
+        <v>12730</v>
+      </c>
+      <c r="I63" t="n">
+        <v>341724</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2296631</v>
+      </c>
+      <c r="K63" t="n">
+        <v>32832</v>
+      </c>
+      <c r="L63" t="n">
+        <v>2683917</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2018-03-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>2018-03-31 23:59:59</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>292160</v>
+      </c>
+      <c r="D64" t="n">
+        <v>36292582</v>
+      </c>
+      <c r="E64" t="n">
+        <v>130169348</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1373784</v>
+      </c>
+      <c r="G64" t="n">
+        <v>168127874</v>
+      </c>
+      <c r="H64" t="n">
+        <v>22731</v>
+      </c>
+      <c r="I64" t="n">
+        <v>581766</v>
+      </c>
+      <c r="J64" t="n">
+        <v>3458363</v>
+      </c>
+      <c r="K64" t="n">
+        <v>50321</v>
+      </c>
+      <c r="L64" t="n">
+        <v>4113181</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2018-04-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>2018-04-30 23:59:59</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>342368</v>
+      </c>
+      <c r="D65" t="n">
+        <v>29047820</v>
+      </c>
+      <c r="E65" t="n">
+        <v>115620752</v>
+      </c>
+      <c r="F65" t="n">
+        <v>1383298</v>
+      </c>
+      <c r="G65" t="n">
+        <v>146394238</v>
+      </c>
+      <c r="H65" t="n">
+        <v>25622</v>
+      </c>
+      <c r="I65" t="n">
+        <v>555820</v>
+      </c>
+      <c r="J65" t="n">
+        <v>3100268</v>
+      </c>
+      <c r="K65" t="n">
+        <v>45576</v>
+      </c>
+      <c r="L65" t="n">
+        <v>3727286</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2018-05-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>2018-05-31 23:59:59</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>415108</v>
+      </c>
+      <c r="D66" t="n">
+        <v>39122990</v>
+      </c>
+      <c r="E66" t="n">
+        <v>113069806</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1704542</v>
+      </c>
+      <c r="G66" t="n">
+        <v>154312446</v>
+      </c>
+      <c r="H66" t="n">
+        <v>29122</v>
+      </c>
+      <c r="I66" t="n">
+        <v>576661</v>
+      </c>
+      <c r="J66" t="n">
+        <v>3047543</v>
+      </c>
+      <c r="K66" t="n">
+        <v>50420</v>
+      </c>
+      <c r="L66" t="n">
+        <v>3703746</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2018-06-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>2018-06-30 23:59:59</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>338414</v>
+      </c>
+      <c r="D67" t="n">
+        <v>38865854</v>
+      </c>
+      <c r="E67" t="n">
+        <v>132275968</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1384750</v>
+      </c>
+      <c r="G67" t="n">
+        <v>172864986</v>
+      </c>
+      <c r="H67" t="n">
+        <v>23282</v>
+      </c>
+      <c r="I67" t="n">
+        <v>528501</v>
+      </c>
+      <c r="J67" t="n">
+        <v>3462691</v>
+      </c>
+      <c r="K67" t="n">
+        <v>51825</v>
+      </c>
+      <c r="L67" t="n">
+        <v>4066299</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2018-07-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>2018-07-31 23:59:59</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>374168</v>
+      </c>
+      <c r="D68" t="n">
+        <v>45780584</v>
+      </c>
+      <c r="E68" t="n">
+        <v>228098982</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1690370</v>
+      </c>
+      <c r="G68" t="n">
+        <v>275944104</v>
+      </c>
+      <c r="H68" t="n">
+        <v>28045</v>
+      </c>
+      <c r="I68" t="n">
+        <v>646881</v>
+      </c>
+      <c r="J68" t="n">
+        <v>5208498</v>
+      </c>
+      <c r="K68" t="n">
+        <v>56754</v>
+      </c>
+      <c r="L68" t="n">
+        <v>5940178</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2018-08-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>2018-08-31 23:59:59</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>415848</v>
+      </c>
+      <c r="D69" t="n">
+        <v>50792838</v>
+      </c>
+      <c r="E69" t="n">
+        <v>237734928</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1732240</v>
+      </c>
+      <c r="G69" t="n">
+        <v>290675854</v>
+      </c>
+      <c r="H69" t="n">
+        <v>39702</v>
+      </c>
+      <c r="I69" t="n">
+        <v>720045</v>
+      </c>
+      <c r="J69" t="n">
+        <v>5801249</v>
+      </c>
+      <c r="K69" t="n">
+        <v>61808</v>
+      </c>
+      <c r="L69" t="n">
+        <v>6622804</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2018-09-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>2018-09-30 23:59:59</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>392316</v>
+      </c>
+      <c r="D70" t="n">
+        <v>45591504</v>
+      </c>
+      <c r="E70" t="n">
+        <v>239647046</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1804238</v>
+      </c>
+      <c r="G70" t="n">
+        <v>287435104</v>
+      </c>
+      <c r="H70" t="n">
+        <v>30838</v>
+      </c>
+      <c r="I70" t="n">
+        <v>671874</v>
+      </c>
+      <c r="J70" t="n">
+        <v>6079126</v>
+      </c>
+      <c r="K70" t="n">
+        <v>60342</v>
+      </c>
+      <c r="L70" t="n">
+        <v>6842180</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2018-10-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>2018-10-31 23:59:59</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>279610</v>
+      </c>
+      <c r="D71" t="n">
+        <v>43159846</v>
+      </c>
+      <c r="E71" t="n">
+        <v>252903498</v>
+      </c>
+      <c r="F71" t="n">
+        <v>2207990</v>
+      </c>
+      <c r="G71" t="n">
+        <v>298550944</v>
+      </c>
+      <c r="H71" t="n">
+        <v>25905</v>
+      </c>
+      <c r="I71" t="n">
+        <v>690276</v>
+      </c>
+      <c r="J71" t="n">
+        <v>6518751</v>
+      </c>
+      <c r="K71" t="n">
+        <v>53000</v>
+      </c>
+      <c r="L71" t="n">
+        <v>7287932</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2018-11-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>2018-11-30 23:59:59</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>450516</v>
+      </c>
+      <c r="D72" t="n">
+        <v>45454548</v>
+      </c>
+      <c r="E72" t="n">
+        <v>171420732</v>
+      </c>
+      <c r="F72" t="n">
+        <v>1720504</v>
+      </c>
+      <c r="G72" t="n">
+        <v>219046300</v>
+      </c>
+      <c r="H72" t="n">
+        <v>28075</v>
+      </c>
+      <c r="I72" t="n">
+        <v>754122</v>
+      </c>
+      <c r="J72" t="n">
+        <v>4729114</v>
+      </c>
+      <c r="K72" t="n">
+        <v>47630</v>
+      </c>
+      <c r="L72" t="n">
+        <v>5558941</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2018-12-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>2018-12-31 23:59:59</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>304664</v>
+      </c>
+      <c r="D73" t="n">
+        <v>53914312</v>
+      </c>
+      <c r="E73" t="n">
+        <v>141855206</v>
+      </c>
+      <c r="F73" t="n">
+        <v>1954360</v>
+      </c>
+      <c r="G73" t="n">
+        <v>198028542</v>
+      </c>
+      <c r="H73" t="n">
+        <v>24755</v>
+      </c>
+      <c r="I73" t="n">
+        <v>760718</v>
+      </c>
+      <c r="J73" t="n">
+        <v>3961178</v>
+      </c>
+      <c r="K73" t="n">
+        <v>55558</v>
+      </c>
+      <c r="L73" t="n">
+        <v>4802209</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2019-01-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>2019-01-31 23:59:59</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>298268</v>
+      </c>
+      <c r="D74" t="n">
+        <v>47889750</v>
+      </c>
+      <c r="E74" t="n">
+        <v>131051592</v>
+      </c>
+      <c r="F74" t="n">
+        <v>2075578</v>
+      </c>
+      <c r="G74" t="n">
+        <v>181315188</v>
+      </c>
+      <c r="H74" t="n">
+        <v>24216</v>
+      </c>
+      <c r="I74" t="n">
+        <v>735201</v>
+      </c>
+      <c r="J74" t="n">
+        <v>3776906</v>
+      </c>
+      <c r="K74" t="n">
+        <v>64152</v>
+      </c>
+      <c r="L74" t="n">
+        <v>4600475</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2019-02-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>2019-02-28 23:59:59</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>445210</v>
+      </c>
+      <c r="D75" t="n">
+        <v>24917742</v>
+      </c>
+      <c r="E75" t="n">
+        <v>98076246</v>
+      </c>
+      <c r="F75" t="n">
+        <v>1223326</v>
+      </c>
+      <c r="G75" t="n">
+        <v>124662524</v>
+      </c>
+      <c r="H75" t="n">
+        <v>20336</v>
+      </c>
+      <c r="I75" t="n">
+        <v>494805</v>
+      </c>
+      <c r="J75" t="n">
+        <v>2942789</v>
+      </c>
+      <c r="K75" t="n">
+        <v>38979</v>
+      </c>
+      <c r="L75" t="n">
+        <v>3496909</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2019-03-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>2019-03-31 23:59:59</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>473364</v>
+      </c>
+      <c r="D76" t="n">
+        <v>47193732</v>
+      </c>
+      <c r="E76" t="n">
+        <v>184952514</v>
+      </c>
+      <c r="F76" t="n">
+        <v>1500690</v>
+      </c>
+      <c r="G76" t="n">
+        <v>234120300</v>
+      </c>
+      <c r="H76" t="n">
+        <v>29808</v>
+      </c>
+      <c r="I76" t="n">
+        <v>867920</v>
+      </c>
+      <c r="J76" t="n">
+        <v>5372959</v>
+      </c>
+      <c r="K76" t="n">
+        <v>55832</v>
+      </c>
+      <c r="L76" t="n">
+        <v>6326519</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2019-04-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>2019-04-30 23:59:59</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>543854</v>
+      </c>
+      <c r="D77" t="n">
+        <v>63027056</v>
+      </c>
+      <c r="E77" t="n">
+        <v>209565776</v>
+      </c>
+      <c r="F77" t="n">
+        <v>1940624</v>
+      </c>
+      <c r="G77" t="n">
+        <v>275077310</v>
+      </c>
+      <c r="H77" t="n">
+        <v>39480</v>
+      </c>
+      <c r="I77" t="n">
+        <v>1003816</v>
+      </c>
+      <c r="J77" t="n">
+        <v>5707364</v>
+      </c>
+      <c r="K77" t="n">
+        <v>63411</v>
+      </c>
+      <c r="L77" t="n">
+        <v>6814071</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2019-05-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>2019-05-31 23:59:59</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>487662</v>
+      </c>
+      <c r="D78" t="n">
+        <v>74450276</v>
+      </c>
+      <c r="E78" t="n">
+        <v>224334718</v>
+      </c>
+      <c r="F78" t="n">
+        <v>2038902</v>
+      </c>
+      <c r="G78" t="n">
+        <v>301311558</v>
+      </c>
+      <c r="H78" t="n">
+        <v>43913</v>
+      </c>
+      <c r="I78" t="n">
+        <v>1180083</v>
+      </c>
+      <c r="J78" t="n">
+        <v>6246364</v>
+      </c>
+      <c r="K78" t="n">
+        <v>80859</v>
+      </c>
+      <c r="L78" t="n">
+        <v>7551219</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2019-06-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>2019-06-30 23:59:59</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>579556</v>
+      </c>
+      <c r="D79" t="n">
+        <v>85572098</v>
+      </c>
+      <c r="E79" t="n">
+        <v>224930846</v>
+      </c>
+      <c r="F79" t="n">
+        <v>1936906</v>
+      </c>
+      <c r="G79" t="n">
+        <v>313019406</v>
+      </c>
+      <c r="H79" t="n">
+        <v>45899</v>
+      </c>
+      <c r="I79" t="n">
+        <v>1211554</v>
+      </c>
+      <c r="J79" t="n">
+        <v>6320092</v>
+      </c>
+      <c r="K79" t="n">
+        <v>86748</v>
+      </c>
+      <c r="L79" t="n">
+        <v>7664293</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2019-07-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>2019-07-31 23:59:59</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>507808</v>
+      </c>
+      <c r="D80" t="n">
+        <v>74763614</v>
+      </c>
+      <c r="E80" t="n">
+        <v>236182356</v>
+      </c>
+      <c r="F80" t="n">
+        <v>1950988</v>
+      </c>
+      <c r="G80" t="n">
+        <v>313404766</v>
+      </c>
+      <c r="H80" t="n">
+        <v>38546</v>
+      </c>
+      <c r="I80" t="n">
+        <v>1171089</v>
+      </c>
+      <c r="J80" t="n">
+        <v>6404744</v>
+      </c>
+      <c r="K80" t="n">
+        <v>86839</v>
+      </c>
+      <c r="L80" t="n">
+        <v>7701218</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2019-08-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>2019-08-31 23:59:59</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>424922</v>
+      </c>
+      <c r="D81" t="n">
+        <v>78470552</v>
+      </c>
+      <c r="E81" t="n">
+        <v>229405296</v>
+      </c>
+      <c r="F81" t="n">
+        <v>2223278</v>
+      </c>
+      <c r="G81" t="n">
+        <v>310524048</v>
+      </c>
+      <c r="H81" t="n">
+        <v>33821</v>
+      </c>
+      <c r="I81" t="n">
+        <v>1162541</v>
+      </c>
+      <c r="J81" t="n">
+        <v>6169949</v>
+      </c>
+      <c r="K81" t="n">
+        <v>81962</v>
+      </c>
+      <c r="L81" t="n">
+        <v>7448273</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2019-09-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>2019-09-30 23:59:59</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>518498</v>
+      </c>
+      <c r="D82" t="n">
+        <v>81437608</v>
+      </c>
+      <c r="E82" t="n">
+        <v>228067718</v>
+      </c>
+      <c r="F82" t="n">
+        <v>2144006</v>
+      </c>
+      <c r="G82" t="n">
+        <v>312167830</v>
+      </c>
+      <c r="H82" t="n">
+        <v>39504</v>
+      </c>
+      <c r="I82" t="n">
+        <v>1197067</v>
+      </c>
+      <c r="J82" t="n">
+        <v>6299179</v>
+      </c>
+      <c r="K82" t="n">
+        <v>91489</v>
+      </c>
+      <c r="L82" t="n">
+        <v>7627239</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2019-10-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>2019-10-31 23:59:59</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>311068</v>
+      </c>
+      <c r="D83" t="n">
+        <v>70218548</v>
+      </c>
+      <c r="E83" t="n">
+        <v>198546186</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1651172</v>
+      </c>
+      <c r="G83" t="n">
+        <v>270726974</v>
+      </c>
+      <c r="H83" t="n">
+        <v>28949</v>
+      </c>
+      <c r="I83" t="n">
+        <v>1040103</v>
+      </c>
+      <c r="J83" t="n">
+        <v>5312359</v>
+      </c>
+      <c r="K83" t="n">
+        <v>69150</v>
+      </c>
+      <c r="L83" t="n">
+        <v>6450561</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2019-11-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>2019-11-30 23:59:59</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>437426</v>
+      </c>
+      <c r="D84" t="n">
+        <v>81216600</v>
+      </c>
+      <c r="E84" t="n">
+        <v>289840286</v>
+      </c>
+      <c r="F84" t="n">
+        <v>2220032</v>
+      </c>
+      <c r="G84" t="n">
+        <v>373714344</v>
+      </c>
+      <c r="H84" t="n">
+        <v>40782</v>
+      </c>
+      <c r="I84" t="n">
+        <v>1370704</v>
+      </c>
+      <c r="J84" t="n">
+        <v>7604652</v>
+      </c>
+      <c r="K84" t="n">
+        <v>90400</v>
+      </c>
+      <c r="L84" t="n">
+        <v>9106538</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2019-12-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>2019-12-31 23:59:59</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>533628</v>
+      </c>
+      <c r="D85" t="n">
+        <v>95728492</v>
+      </c>
+      <c r="E85" t="n">
+        <v>273442176</v>
+      </c>
+      <c r="F85" t="n">
+        <v>2639500</v>
+      </c>
+      <c r="G85" t="n">
+        <v>372343796</v>
+      </c>
+      <c r="H85" t="n">
+        <v>43059</v>
+      </c>
+      <c r="I85" t="n">
+        <v>1433662</v>
+      </c>
+      <c r="J85" t="n">
+        <v>7474301</v>
+      </c>
+      <c r="K85" t="n">
+        <v>96503</v>
+      </c>
+      <c r="L85" t="n">
+        <v>9047525</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2020-01-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>2020-01-31 23:59:59</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>434798</v>
+      </c>
+      <c r="D86" t="n">
+        <v>73492732</v>
+      </c>
+      <c r="E86" t="n">
+        <v>174663230</v>
+      </c>
+      <c r="F86" t="n">
+        <v>2003552</v>
+      </c>
+      <c r="G86" t="n">
+        <v>250594312</v>
+      </c>
+      <c r="H86" t="n">
+        <v>28043</v>
+      </c>
+      <c r="I86" t="n">
+        <v>966615</v>
+      </c>
+      <c r="J86" t="n">
+        <v>4867470</v>
+      </c>
+      <c r="K86" t="n">
+        <v>64011</v>
+      </c>
+      <c r="L86" t="n">
+        <v>5926139</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2020-02-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>2020-02-29 23:59:59</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>3284958</v>
+      </c>
+      <c r="D87" t="n">
+        <v>107031928</v>
+      </c>
+      <c r="E87" t="n">
+        <v>279224022</v>
+      </c>
+      <c r="F87" t="n">
+        <v>9004042</v>
+      </c>
+      <c r="G87" t="n">
+        <v>398544950</v>
+      </c>
+      <c r="H87" t="n">
+        <v>34995</v>
+      </c>
+      <c r="I87" t="n">
+        <v>1070062</v>
+      </c>
+      <c r="J87" t="n">
+        <v>439346</v>
+      </c>
+      <c r="K87" t="n">
+        <v>90261</v>
+      </c>
+      <c r="L87" t="n">
+        <v>1634664</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2020-03-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>2020-03-31 23:59:59</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>5254142</v>
+      </c>
+      <c r="D88" t="n">
+        <v>166502386</v>
+      </c>
+      <c r="E88" t="n">
+        <v>436652432</v>
+      </c>
+      <c r="F88" t="n">
+        <v>13897232</v>
+      </c>
+      <c r="G88" t="n">
+        <v>622306192</v>
+      </c>
+      <c r="H88" t="n">
+        <v>58660</v>
+      </c>
+      <c r="I88" t="n">
+        <v>1667185</v>
+      </c>
+      <c r="J88" t="n">
+        <v>693285</v>
+      </c>
+      <c r="K88" t="n">
+        <v>141938</v>
+      </c>
+      <c r="L88" t="n">
+        <v>2561068</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2020-04-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>2020-04-30 23:59:59</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>5775806</v>
+      </c>
+      <c r="D89" t="n">
+        <v>163886348</v>
+      </c>
+      <c r="E89" t="n">
+        <v>431089530</v>
+      </c>
+      <c r="F89" t="n">
+        <v>13697902</v>
+      </c>
+      <c r="G89" t="n">
+        <v>614449586</v>
+      </c>
+      <c r="H89" t="n">
+        <v>65838</v>
+      </c>
+      <c r="I89" t="n">
+        <v>1645016</v>
+      </c>
+      <c r="J89" t="n">
+        <v>682796</v>
+      </c>
+      <c r="K89" t="n">
+        <v>141890</v>
+      </c>
+      <c r="L89" t="n">
+        <v>2535540</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2020-05-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>2020-05-31 23:59:59</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>1831378</v>
+      </c>
+      <c r="D90" t="n">
+        <v>17094176</v>
+      </c>
+      <c r="E90" t="n">
+        <v>37184342</v>
+      </c>
+      <c r="F90" t="n">
+        <v>1618624</v>
+      </c>
+      <c r="G90" t="n">
+        <v>57728520</v>
+      </c>
+      <c r="H90" t="n">
+        <v>14696</v>
+      </c>
+      <c r="I90" t="n">
+        <v>146616</v>
+      </c>
+      <c r="J90" t="n">
+        <v>66062</v>
+      </c>
+      <c r="K90" t="n">
+        <v>19622</v>
+      </c>
+      <c r="L90" t="n">
+        <v>246996</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2020-06-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>2020-06-30 23:59:59</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>126</v>
+      </c>
+      <c r="D91" t="n">
+        <v>68</v>
+      </c>
+      <c r="E91" t="n">
+        <v>62</v>
+      </c>
+      <c r="F91" t="n">
+        <v>52</v>
+      </c>
+      <c r="G91" t="n">
+        <v>308</v>
+      </c>
+      <c r="H91" t="n">
+        <v>51</v>
+      </c>
+      <c r="I91" t="n">
+        <v>34</v>
+      </c>
+      <c r="J91" t="n">
+        <v>31</v>
+      </c>
+      <c r="K91" t="n">
+        <v>26</v>
+      </c>
+      <c r="L91" t="n">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2020-07-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>2020-07-31 23:59:59</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>76</v>
+      </c>
+      <c r="D92" t="n">
+        <v>296</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0</v>
+      </c>
+      <c r="F92" t="n">
+        <v>4</v>
+      </c>
+      <c r="G92" t="n">
+        <v>376</v>
+      </c>
+      <c r="H92" t="n">
+        <v>5</v>
+      </c>
+      <c r="I92" t="n">
+        <v>14</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2020-08-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>2020-08-31 23:59:59</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>0</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2020-09-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>2020-09-30 23:59:59</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>82684</v>
+      </c>
+      <c r="D94" t="n">
+        <v>59930</v>
+      </c>
+      <c r="E94" t="n">
+        <v>81974</v>
+      </c>
+      <c r="F94" t="n">
+        <v>38982</v>
+      </c>
+      <c r="G94" t="n">
+        <v>263570</v>
+      </c>
+      <c r="H94" t="n">
+        <v>5162</v>
+      </c>
+      <c r="I94" t="n">
+        <v>3974</v>
+      </c>
+      <c r="J94" t="n">
+        <v>4690</v>
+      </c>
+      <c r="K94" t="n">
+        <v>3499</v>
+      </c>
+      <c r="L94" t="n">
+        <v>17325</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
           <t>2020-10-01 00:00:00</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B95" t="inlineStr">
         <is>
           <t>2020-10-31 23:59:59</t>
         </is>
       </c>
-      <c r="C51" t="n">
-        <v>0</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0</v>
-      </c>
-      <c r="F51" t="n">
-        <v>0</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0</v>
-      </c>
-      <c r="L51" t="n">
+      <c r="C95" t="n">
+        <v>0</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2020-11-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>2020-11-30 23:59:59</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>0</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2020-12-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>2020-12-31 23:59:59</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>0</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0</v>
+      </c>
+      <c r="L97" t="n">
         <v>0</v>
       </c>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A30"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,6 +437,21 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Period Start 1</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Period End 1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Turnover (RMB) 1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Winnings (RMB) 1</t>
         </is>
       </c>
@@ -444,6 +459,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>2020-02-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2020-02-01 23:59:59</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
@@ -451,6 +481,21 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>2020-02-02 00:00:00</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2020-02-02 23:59:59</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
@@ -458,6 +503,21 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>2020-02-03 00:00:00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-02-03 23:59:59</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
@@ -465,6 +525,21 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>2020-02-04 00:00:00</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-02-04 23:59:59</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
@@ -472,6 +547,21 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>2020-02-05 00:00:00</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-02-05 23:59:59</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
@@ -479,6 +569,21 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>2020-02-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-02-06 23:59:59</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
@@ -486,6 +591,21 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>2020-02-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-02-07 23:59:59</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
@@ -493,6 +613,21 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>2020-02-08 00:00:00</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-02-08 23:59:59</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
@@ -500,6 +635,21 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>2020-02-09 00:00:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2020-02-09 23:59:59</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
@@ -507,6 +657,21 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>2020-02-10 00:00:00</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2020-02-10 23:59:59</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
@@ -514,6 +679,21 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>2020-02-11 00:00:00</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2020-02-11 23:59:59</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
@@ -521,6 +701,21 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>2020-02-12 00:00:00</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2020-02-12 23:59:59</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>17937590.00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>10085180.24</t>
         </is>
       </c>
@@ -528,6 +723,21 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>2020-02-13 00:00:00</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2020-02-13 23:59:59</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>49755212.00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>29633199.82</t>
         </is>
       </c>
@@ -535,6 +745,21 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>2020-02-14 00:00:00</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2020-02-14 23:59:59</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>43121280.00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>26081658.80</t>
         </is>
       </c>
@@ -542,6 +767,21 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>2020-02-15 00:00:00</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2020-02-15 23:59:59</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>47102910.00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>26641320.30</t>
         </is>
       </c>
@@ -549,6 +789,21 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>2020-02-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2020-02-16 23:59:59</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>40554926.00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>23199227.32</t>
         </is>
       </c>
@@ -556,6 +811,21 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>2020-02-17 00:00:00</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2020-02-17 23:59:59</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>30341464.00</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>17024966.06</t>
         </is>
       </c>
@@ -563,6 +833,21 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>2020-02-18 00:00:00</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2020-02-18 23:59:59</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>26169462.00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>14436334.70</t>
         </is>
       </c>
@@ -570,6 +855,21 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>2020-02-19 00:00:00</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2020-02-19 23:59:59</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>24688274.00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>13199477.54</t>
         </is>
       </c>
@@ -577,6 +877,21 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>2020-02-20 00:00:00</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2020-02-20 23:59:59</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2831462.00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>1689851.18</t>
         </is>
       </c>
@@ -584,6 +899,21 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>2020-02-21 00:00:00</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2020-02-21 23:59:59</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
@@ -591,6 +921,21 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>2020-02-22 00:00:00</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2020-02-22 23:59:59</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
@@ -598,6 +943,21 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>2020-02-23 00:00:00</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2020-02-23 23:59:59</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
@@ -605,6 +965,21 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>2020-02-24 00:00:00</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2020-02-24 23:59:59</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>19755912.00</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>11683697.94</t>
         </is>
       </c>
@@ -612,6 +987,21 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>2020-02-25 00:00:00</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2020-02-25 23:59:59</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>26477086.00</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>14768777.60</t>
         </is>
       </c>
@@ -619,6 +1009,21 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>2020-02-26 00:00:00</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2020-02-26 23:59:59</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>35814204.00</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>19963315.32</t>
         </is>
       </c>
@@ -626,6 +1031,21 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>2020-02-27 00:00:00</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2020-02-27 23:59:59</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>33102780.00</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>19899502.12</t>
         </is>
       </c>
@@ -633,12 +1053,42 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>2020-02-28 00:00:00</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2020-02-28 23:59:59</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>34282574.00</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>20448128.92</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
+        <is>
+          <t>2020-02-29 00:00:00</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2020-02-29 23:59:59</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>6122784.00</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>3338108.84</t>
         </is>
